--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -29,16 +29,16 @@
     <t>Университеты</t>
   </si>
   <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений;</t>
+  </si>
+  <si>
     <t>Лингвистика</t>
   </si>
   <si>
     <t>Воронежский Литературно-Переводческий Университет;</t>
-  </si>
-  <si>
-    <t>Медицина</t>
-  </si>
-  <si>
-    <t>Самарский Медицинский Институт;Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;</t>
   </si>
   <si>
     <t>Физика</t>
@@ -47,10 +47,10 @@
     <t>Московский Придуманный Институт;Московский Выдуманный Университет;</t>
   </si>
   <si>
-    <t>Математика</t>
+    <t>Медицина</t>
   </si>
   <si>
-    <t>Казанский Университет Вычислений;</t>
+    <t>Самарский Медицинский Институт;Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;</t>
   </si>
 </sst>
 </file>
@@ -146,13 +146,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>4.329999923706055</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -180,13 +180,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
